--- a/docs/ST1/ST1_16.08.2024_output.xlsx
+++ b/docs/ST1/ST1_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731617631.3450875</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731617633.5673552</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617631.3450875.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617633.5673552.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.54</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.54</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731617633.5833118</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731617634.1519167</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617633.5833118.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617634.1519167.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.54</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.52</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731617634.1678734</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731617635.186844</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617634.1678734.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617635.186844.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.52</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731617635.2018116</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731617637.396158</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617635.2018116.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617637.396158.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.58</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.03</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731617637.4131155</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731617639.269313</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617637.4131155.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617639.269313.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.03</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.93</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731617639.2852705</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731617640.1944287</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617639.2852705.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617640.1944287.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.93</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.88</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731617640.210364</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731617641.58924</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617640.210364.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617641.58924.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.88</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.79</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -903,95 +961,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731617641.6041992</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731617641.6041992.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731617641.6041992.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.79</v>
       </c>
-      <c r="J10" t="n">
-        <v>277.79</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>278.27</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.4799999999999613</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731617647.9993587</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731617649.9331858</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617647.9993587.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617649.9331858.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.54</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.54</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731617649.948146</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731617650.4228754</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617649.948146.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617650.4228754.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>277.54</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.52</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731617650.437835</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731617651.3015292</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617650.437835.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617651.3015292.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.52</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.58</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731617651.3174822</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731617653.272258</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617651.3174822.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617653.272258.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.58</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.03</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731617653.288209</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731617654.6745</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617653.288209.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617654.6745.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.03</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>277.93</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731617654.6904676</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731617655.4613957</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617654.6904676.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617655.4613957.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>277.93</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>277.88</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731617655.4773555</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731617656.558461</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617655.4773555.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617656.558461.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>277.88</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>277.79</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731617656.5744226</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731617661.2268558</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617656.5744226.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617661.2268558.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>277.79</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>277.48</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731617663.3332686</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731617665.1831777</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617663.3332686.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617665.1831777.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>277.98</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>278.02</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.03999999999996362</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731617665.199139</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731617666.2617083</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617665.199139.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617666.2617083.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>278.02</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>278.03</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731617666.2776668</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731617666.9504373</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617666.2776668.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617666.9504373.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>278.03</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>278.03</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731617666.9673643</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731617668.2853816</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617666.9673643.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617668.2853816.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>278.03</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>278.41</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.3800000000000523</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731617668.3023138</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731617672.80972</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617668.3023138.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617672.80972.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>278.41</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>278.09</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.32000000000005</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1623,95 +1765,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731617672.825676</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731617672.825676.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731617672.825676.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>278.09</v>
       </c>
-      <c r="J24" t="n">
-        <v>278.09</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>278.65</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.5600000000000023</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731617678.8224165</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731617680.6681054</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617678.8224165.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617680.6681054.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.45</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>127.33</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731617682.9252338</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731617684.923908</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617682.9252338.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617684.923908.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>127.09</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>127.09</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731617684.939864</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731617685.7973068</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617684.939864.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617685.7973068.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>127.09</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>127.66</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.5699999999999932</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731617686.1477246</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731617687.5911946</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617686.1477246.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617687.5911946.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.26</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>127.17</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731617687.6071482</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731617692.7383585</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617687.6071482.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617692.7383585.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.17</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.93</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.7600000000000051</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731617692.7542884</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731617693.0194814</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617692.7542884.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617693.0194814.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.93</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>128.08</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731617696.0458827</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731617697.8925016</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617696.0458827.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617697.8925016.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6319</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6311.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>7.5</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731617700.8753395</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731617702.210598</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617700.8753395.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617702.210598.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6307.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6307</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2083,95 +2279,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731617706.6131024</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731617706.6131024.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731617706.6131024.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6300.5</v>
       </c>
-      <c r="J33" t="n">
-        <v>6300.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6326</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731617711.46996</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731617712.6975954</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617711.46996.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617712.6975954.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>494.9</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>494.75</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731617712.7135518</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731617714.264965</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617712.7135518.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617714.264965.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>494.75</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>494.95</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731617714.2819188</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731617714.830583</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617714.2819188.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617714.830583.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>494.95</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>494.95</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731617714.84654</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731617716.2386868</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617714.84654.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617716.2386868.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>494.95</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>493.7</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.25</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731617720.9882793</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731617723.7897513</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617720.9882793.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617723.7897513.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>493.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>493.15</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.6500000000000341</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2387,95 +2619,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731617727.3437848</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731617727.3437848.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731617727.3437848.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>493.65</v>
       </c>
-      <c r="J39" t="n">
-        <v>493.65</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>494.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.8500000000000227</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731617728.3548806</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731617731.5004618</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617728.3548806.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617731.5004618.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>223.19</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>223.62</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.4300000000000068</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731617735.7646408</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731617737.6589577</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617735.7646408.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617737.6589577.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>223.52</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>224</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731617737.6749141</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731617739.6372292</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617737.6749141.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617739.6372292.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>224</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>223.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731617749.8452227</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731617750.8931916</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617749.8452227.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617750.8931916.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1020</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1018</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>2</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731617761.4130282</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731617762.0332131</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617761.4130282.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617762.0332131.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.118</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>12.113</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731617762.0501387</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731617763.506047</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617762.0501387.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617763.506047.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.113</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.138</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.02500000000000036</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731617763.522004</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731617766.533374</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617763.522004.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617766.533374.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.138</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.117</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.02099999999999902</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731617770.0641885</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731617770.8305123</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617770.0641885.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617770.8305123.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.113</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.093</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731617772.7168734</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731617773.8258436</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617772.7168734.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617773.8258436.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.082</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.088</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.005999999999998451</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2899,51 +3191,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731617773.8417718</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731617776.2908862</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617773.8417718.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731617776.2908862.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.088</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>12.085</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.002999999999998337</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2951,95 +3249,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731617776.909701</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731617776.909701.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731617776.909701.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>12.086</v>
       </c>
-      <c r="J50" t="n">
-        <v>12.086</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>12.098</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01200000000000045</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731617779.4064472</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731617780.8187463</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617779.4064472.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617780.8187463.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>124.9</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>125.02</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1199999999999903</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731617780.834699</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731617781.4796207</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617780.834699.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617781.4796207.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>125.02</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>125.08</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731617781.497573</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731617782.3869</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617781.497573.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617782.3869.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>125.08</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>124.92</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731617783.0701675</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731617783.9850943</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617783.0701675.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617783.9850943.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>125.02</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>124.62</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731617784.7542062</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731617786.2826948</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617784.7542062.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617786.2826948.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>124.64</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>124.7</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731617786.2996454</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731617788.3390725</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617786.2996454.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617788.3390725.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>124.7</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>125.36</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731617789.3497393</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731617792.067266</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617789.3497393.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617792.067266.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>125.38</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>125.66</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3359,95 +3705,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731617792.0842276</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731617792.0842276.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731617792.0842276.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>125.66</v>
       </c>
-      <c r="J58" t="n">
-        <v>125.66</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>127.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.439999999999998</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731617795.1084206</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731617799.0897274</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617795.1084206.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617799.0897274.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>161.62</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>161.88</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.2599999999999909</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731617799.9573412</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731617803.891017</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617799.9573412.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617803.891017.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>161.92</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>162.12</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731617803.9069738</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731617805.0953035</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617803.9069738.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617805.0953035.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>162.12</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>162.2</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731617805.1122754</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731617806.6294882</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617805.1122754.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617806.6294882.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>162.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>162.1</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3611,95 +3987,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731617808.756678</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731617808.756678.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731617808.756678.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>162.78</v>
       </c>
-      <c r="J63" t="n">
-        <v>162.78</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>162.94</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731617812.546097</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731617814.1151795</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617812.546097.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617814.1151795.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>49.7</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>49.67</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3707,51 +4095,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731617815.0297022</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731617816.2902849</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617815.0297022.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617816.2902849.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>49.715</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>49.735</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731617819.7258167</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731617821.8865066</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617819.7258167.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617821.8865066.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>49.735</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>49.68</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3811,51 +4211,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731617821.9034615</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731617825.8376698</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617821.9034615.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617825.8376698.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.68</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.78</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3863,95 +4269,107 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731617825.8545978</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731617825.8545978.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731617825.8545978.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>49.78</v>
       </c>
-      <c r="J68" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>49.775</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731617832.5134318</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731617833.4164324</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617832.5134318.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617833.4164324.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1377.2</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1374.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731617833.8412101</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731617835.901269</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617833.8412101.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617835.901269.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1376.2</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1378.6</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-2.399999999999864</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731617835.9191935</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731617840.7631865</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617835.9191935.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617840.7631865.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1378.6</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1387.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>9.200000000000045</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731617841.395451</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731617843.1719227</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617841.395451.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617843.1719227.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1385.6</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1388</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731617850.8245528</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731617853.3379533</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617850.8245528.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617853.3379533.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>58.76</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>58.75</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731617856.9282384</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731617859.780553</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617856.9282384.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617859.780553.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>58.61</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>58.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731617865.1112266</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731617873.07102</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617865.1112266.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617873.07102.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>98.81999999999999</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.02999999999998693</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4271,51 +4725,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731617873.4050364</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731617876.0937116</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617873.4050364.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617876.0937116.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>98.88</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>99</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -4323,51 +4783,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731617876.1116323</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731617876.5704231</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617876.1116323.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617876.5704231.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>99</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>99.22</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4375,51 +4841,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731617880.400274</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731617884.162712</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731617880.400274.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731617884.162712.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>54.48</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>54.52</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4427,51 +4899,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731617884.1796658</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731617888.6947463</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731617884.1796658.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731617888.6947463.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>54.52</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>54.36</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.1600000000000037</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -4479,95 +4957,107 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731617888.7107375</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731617888.7107375.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731617888.7107375.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>54.36</v>
       </c>
-      <c r="J80" t="n">
-        <v>54.36</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>55.08</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.7199999999999989</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-1.32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731617901.635054</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731617907.3155506</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617901.635054.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617907.3155506.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>152.7</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>152.46</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4575,51 +5065,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731617907.3325036</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731617908.198261</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617907.3325036.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617908.198261.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>152.46</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>153.1</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4627,95 +5123,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731617909.563044</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731617909.563044.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731617909.563044.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.3041</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.3056</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.001500000000000001</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731617917.6604753</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731617919.8621545</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617917.6604753.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617919.8621545.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>19.754</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>19.771</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.01699999999999946</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4723,51 +5231,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731617919.879109</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731617924.291567</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617919.879109.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617924.291567.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>19.771</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>19.81</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.03899999999999793</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4775,51 +5289,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731617925.1349413</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731617926.2009861</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617925.1349413.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617926.2009861.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>19.764</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>19.799</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.03500000000000014</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4827,51 +5347,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731617926.218935</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731617928.982308</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617926.218935.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617928.982308.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>19.799</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>19.853</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.05400000000000205</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -4879,51 +5405,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731617929.000261</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731617930.0935862</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617929.000261.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617930.0935862.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.853</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.966</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1129999999999995</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -4931,51 +5463,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731617931.122611</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731617932.758843</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617931.122611.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617932.758843.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.949</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.998</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.04899999999999949</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4983,95 +5521,107 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731617933.0558786</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731617933.0558786.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731617933.0558786.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>19.959</v>
       </c>
-      <c r="J90" t="n">
-        <v>19.959</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731617935.2169895</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731617938.9567704</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617935.2169895.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617938.9567704.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>676.55</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>675.05</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>1.5</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -5079,51 +5629,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731617939.611619</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731617941.6980243</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617939.611619.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617941.6980243.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>675.6</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>675.75</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -5131,51 +5687,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731617941.7149782</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731617944.4453049</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617941.7149782.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617944.4453049.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>675.75</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>674.7</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-1.049999999999955</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -5183,51 +5745,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731617944.4632542</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731617945.262309</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617944.4632542.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617945.262309.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>674.7</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>672</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>2.700000000000045</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -5235,51 +5803,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731617945.7825196</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731617946.9805417</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617945.7825196.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617946.9805417.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>674.95</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>674.95</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5287,95 +5861,107 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731617946.9984655</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731617946.9984655.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731617946.9984655.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>674.95</v>
       </c>
-      <c r="J96" t="n">
-        <v>674.95</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>674.9</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.05000000000006821</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731617951.3537037</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731617955.5590835</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617951.3537037.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617955.5590835.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>149.28</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>148.83</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -5383,51 +5969,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731617959.18242</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731617961.0970619</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617959.18242.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617961.0970619.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>148.42</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>148.16</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5435,51 +6027,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731617964.0435572</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731617965.492853</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617964.0435572.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617965.492853.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>149.02</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>149.27</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.25</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5541,19 +6139,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8700000000000045</v>
+        <v>-1.430000000000007</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06214285714285746</v>
+        <v>-0.1021428571428576</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.31</v>
+        <v>-0.51</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -5563,19 +6161,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.379999999999995</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1724999999999994</v>
+        <v>-0.007500000000000284</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
@@ -5585,19 +6183,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5099999999998772</v>
+        <v>-0.9899999999998386</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06374999999998465</v>
+        <v>-0.1237499999999798</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.18</v>
+        <v>-0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
@@ -5607,19 +6205,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1649999999999956</v>
+        <v>0.1759999999999948</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02357142857142794</v>
+        <v>0.0251428571428564</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -5629,19 +6227,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03999999999999737</v>
+        <v>-0.02799999999999692</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005714285714285339</v>
+        <v>-0.003999999999999559</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.32</v>
+        <v>-0.22</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
@@ -5651,19 +6249,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04166666666666666</v>
+        <v>-0.1000000000000038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04999999999999999</v>
+        <v>-0.12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8">
@@ -5695,16 +6293,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.000000000000114</v>
+        <v>2.950000000000045</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.500000000000019</v>
+        <v>0.4916666666666742</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="F9" t="n">
         <v>0.07000000000000001</v>
@@ -5717,16 +6315,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.105000000000004</v>
+        <v>-0.1100000000000065</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0210000000000008</v>
+        <v>-0.02200000000000131</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="F10" t="n">
         <v>-0.04</v>
@@ -5739,19 +6337,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2800000000000296</v>
+        <v>-0.120000000000033</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.05600000000000591</v>
+        <v>-0.02400000000000659</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.17</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
@@ -5805,19 +6403,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2000000000000099</v>
+        <v>-0.9200000000000088</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06666666666666998</v>
+        <v>-0.3066666666666696</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.36</v>
+        <v>-1.68</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.12</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5871,19 +6469,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>-17.5</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>2.666666666666667</v>
+        <v>-5.833333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.13</v>
+        <v>-0.27</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
@@ -5959,19 +6557,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="22">
